--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 23,96</t>
+          <t>8,57; 24,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 19,27</t>
+          <t>8,36; 18,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 18,42</t>
+          <t>9,6; 19,54</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,03</t>
+          <t>33,52; 41,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 36,14</t>
+          <t>27,69; 36,09</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 37,99</t>
+          <t>31,46; 37,75</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,18; 43,28</t>
+          <t>32,67; 43,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 46,06</t>
+          <t>40,71; 46,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,82; 43,68</t>
+          <t>37,78; 44,04</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 33,65</t>
+          <t>25,93; 33,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,65; 35,75</t>
+          <t>20,05; 35,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,22; 33,13</t>
+          <t>23,78; 33,17</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,97; 51,19</t>
+          <t>43,9; 51,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,96; 52,26</t>
+          <t>46,11; 51,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,03; 50,62</t>
+          <t>46,28; 50,82</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,4; 40,77</t>
+          <t>36,12; 40,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,35</t>
+          <t>35,14; 41,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,49</t>
+          <t>36,82; 40,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 24,49</t>
+          <t>7,88; 23,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 18,99</t>
+          <t>8,3; 19,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 19,54</t>
+          <t>9,43; 18,42</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,52; 41,97</t>
+          <t>33,15; 42,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,69; 36,09</t>
+          <t>27,94; 36,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,46; 37,75</t>
+          <t>31,84; 37,99</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,67; 43,24</t>
+          <t>33,18; 43,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,71; 46,22</t>
+          <t>40,48; 46,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,78; 44,04</t>
+          <t>37,82; 43,68</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,93; 33,85</t>
+          <t>25,95; 33,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 35,57</t>
+          <t>20,65; 35,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 33,17</t>
+          <t>23,22; 33,13</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,9; 51,03</t>
+          <t>43,97; 51,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>46,11; 51,87</t>
+          <t>45,96; 52,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,28; 50,82</t>
+          <t>46,03; 50,62</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,12; 40,48</t>
+          <t>36,4; 40,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,14; 41,3</t>
+          <t>35,75; 41,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,82; 40,42</t>
+          <t>37,07; 40,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
+          <t>4,33%</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>2,76; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>15,45; 21,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>2,35; 5,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 23,96</t>
+          <t>3,14; 6,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>14,1; 19,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>3,63; 6,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>3,16; 5,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 19,27</t>
+          <t>15,93; 19,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,84</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 18,42</t>
+          <t>3,38; 5,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>34,97%</t>
+          <t>8,05%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>1,94; 4,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>12,58; 17,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,98; 10,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,15; 42,03</t>
+          <t>2,03; 4,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,74; 16,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>7,22; 10,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,29; 3,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,94; 36,14</t>
+          <t>12,7; 15,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>31,84; 37,99</t>
+          <t>5,47; 9,62</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>41,36%</t>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,58; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,51; 23,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,02; 24,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,18; 43,28</t>
+          <t>3,86; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>16,6; 22,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,98; 21,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>5,11; 7,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 46,06</t>
+          <t>17,91; 22,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>37,82; 43,68</t>
+          <t>11,76; 21,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,12%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>29,91%</t>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,81; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,63; 12,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>9,13; 14,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,95; 33,65</t>
+          <t>3,93; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>8,14; 12,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,59; 35,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,25; 5,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,65; 35,75</t>
+          <t>8,81; 11,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>23,22; 33,13</t>
+          <t>10,16; 24,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,28%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>48,49%</t>
+          <t>11,23%</t>
         </is>
       </c>
     </row>
@@ -1284,224 +1125,68 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>3,42; 4,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,48; 17,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>8,37; 12,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>43,97; 51,19</t>
+          <t>3,83; 5,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,33; 15,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>9,72; 18,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,86; 4,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,96; 52,26</t>
+          <t>14,35; 15,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>46,03; 50,62</t>
+          <t>9,74; 14,0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>38,56%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>39,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>38,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>36,4; 40,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>35,75; 41,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>37,07; 40,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,62</t>
+          <t>2,74; 5,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 21,76</t>
+          <t>15,57; 21,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,4</t>
+          <t>2,39; 5,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,45</t>
+          <t>3,06; 6,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,1; 19,94</t>
+          <t>14,26; 20,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,59</t>
+          <t>3,73; 6,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,36</t>
+          <t>3,22; 5,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,93; 19,93</t>
+          <t>15,85; 19,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,47</t>
+          <t>3,34; 5,46</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,4</t>
+          <t>2,02; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 17,25</t>
+          <t>12,61; 17,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,36</t>
+          <t>3,73; 10,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,45</t>
+          <t>2,1; 4,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 16,03</t>
+          <t>11,72; 16,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 10,54</t>
+          <t>7,12; 10,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,86</t>
+          <t>2,28; 3,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 15,85</t>
+          <t>12,68; 15,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,47; 9,62</t>
+          <t>5,52; 9,8</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,59</t>
+          <t>5,41; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,6</t>
+          <t>17,36; 23,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,69</t>
+          <t>17,03; 24,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,63</t>
+          <t>3,82; 7,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 22,36</t>
+          <t>16,64; 22,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,98; 21,73</t>
+          <t>8,79; 22,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,76</t>
+          <t>5,08; 7,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,15</t>
+          <t>17,94; 22,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 21,45</t>
+          <t>12,24; 21,55</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,09</t>
+          <t>1,91; 4,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,97</t>
+          <t>8,71; 12,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 14,09</t>
+          <t>8,99; 13,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,81</t>
+          <t>4,08; 6,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 12,01</t>
+          <t>8,02; 11,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 35,86</t>
+          <t>9,57; 32,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,15</t>
+          <t>3,27; 5,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,84</t>
+          <t>8,91; 11,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,16; 24,84</t>
+          <t>10,26; 26,2</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,89</t>
+          <t>3,5; 4,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,02</t>
+          <t>14,4; 17,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,37; 12,04</t>
+          <t>8,15; 11,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,31</t>
+          <t>3,81; 5,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,33; 15,82</t>
+          <t>13,35; 15,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,31</t>
+          <t>9,7; 17,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,85</t>
+          <t>3,88; 4,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 15,96</t>
+          <t>14,18; 15,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,74; 14,0</t>
+          <t>9,83; 14,88</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con temperatura insuficiente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28462</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>125393</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>23160</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30881</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>115038</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35812</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59344</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>240431</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58972</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19287; 40716</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>105063; 146474</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15198; 34165</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21312; 42733</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>95955; 135577</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27089; 48131</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45120; 74391</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>213544; 268875</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45473; 74318</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30358</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>151077</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>90507</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31862</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>144257</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82772</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62220</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>295334</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>173280</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20593; 45371</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>128888; 175257</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>44449; 124832</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21675; 45123</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>122204; 169400</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68229; 99287</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>46692; 81743</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>261868; 329682</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>118833; 210766</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56034</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>155593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>143943</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42153</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>152581</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>152583</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>98187</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>308174</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>296526</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40953; 72877</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>131828; 178358</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>120000; 170324</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>29685; 56956</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>130625; 176093</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>82012; 209514</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>77988; 120625</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>277090; 341021</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>200486; 352923</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>27261</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>101508</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>103861</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>54680</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>102918</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>172658</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>81941</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>204426</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>276519</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18145; 40758</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>81708; 120507</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>83362; 127395</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>42926; 72774</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>83706; 124148</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>104808; 355342</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>65405; 101686</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>176593; 232479</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>207358; 529689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>533571</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>361472</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>514794</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>443825</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1048365</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>805297</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>120094; 167483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>488903; 580562</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>281962; 411882</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>135657; 186311</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>473334; 561205</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>360218; 665407</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>270685; 341272</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>984256; 1108322</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>705061; 1067406</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>